--- a/Documentos/FormatosPlaneacion/v2/individual/Formato de planeacion Estefania.xlsx
+++ b/Documentos/FormatosPlaneacion/v2/individual/Formato de planeacion Estefania.xlsx
@@ -409,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -506,9 +506,6 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -531,13 +528,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="1" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" vertical="bottom"/>
@@ -550,9 +541,6 @@
     </xf>
     <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="1" vertical="bottom"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" vertical="bottom"/>
@@ -1074,39 +1062,39 @@
     </row>
     <row r="17">
       <c r="A17" s="25"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="35"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" ht="25.5" customHeight="1">
       <c r="A18" s="25"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="35"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="35"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="25"/>
@@ -1162,19 +1150,19 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="25"/>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="35"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="25"/>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="27">
@@ -1187,7 +1175,7 @@
         <f t="shared" ref="E23:E24" si="5">C23/$C$32</f>
         <v>0.04166666667</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="27">
         <v>20.0</v>
       </c>
       <c r="G23" s="30">
@@ -1213,7 +1201,7 @@
         <f t="shared" si="5"/>
         <v>0.04166666667</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="27">
         <v>30.0</v>
       </c>
       <c r="G24" s="30">
@@ -1226,78 +1214,86 @@
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="35"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="25"/>
       <c r="B26" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="27">
         <v>30.0</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="28">
         <v>3.0</v>
       </c>
       <c r="E26" s="29">
         <f t="shared" ref="E26:E27" si="7">C26/$C$32</f>
         <v>0.0625</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
+      <c r="F26" s="39">
+        <v>20.0</v>
+      </c>
+      <c r="G26" s="40">
+        <v>3.0</v>
+      </c>
       <c r="H26" s="29">
         <f t="shared" ref="H26:H27" si="8">IF(D26=G26,E26,0)</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="25"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="41" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="27">
         <v>120.0</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="28">
         <v>3.0</v>
       </c>
       <c r="E27" s="29">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
+      <c r="F27" s="39">
+        <v>100.0</v>
+      </c>
+      <c r="G27" s="40">
+        <v>3.0</v>
+      </c>
       <c r="H27" s="29">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="25"/>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="35"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="27">
         <v>30.0</v>
       </c>
       <c r="D29" s="30">
@@ -1307,19 +1303,23 @@
         <f t="shared" ref="E29:E30" si="9">C29/$C$32</f>
         <v>0.0625</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
+      <c r="F29" s="39">
+        <v>20.0</v>
+      </c>
+      <c r="G29" s="40">
+        <v>3.0</v>
+      </c>
       <c r="H29" s="29">
         <f t="shared" ref="H29:H30" si="10">IF(D29=G29,E29,0)</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="43">
         <v>10.0</v>
       </c>
       <c r="D30" s="21">
@@ -1329,10 +1329,10 @@
         <f t="shared" si="9"/>
         <v>0.02083333333</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="43">
         <v>20.0</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="21">
         <v>2.0</v>
       </c>
       <c r="H30" s="24">
@@ -1341,92 +1341,92 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="47">
         <f>SUM(C14:C30)</f>
         <v>480</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="49">
         <f t="shared" ref="E32:F32" si="11">SUM(E14:E30)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="47">
         <f t="shared" si="11"/>
-        <v>340</v>
-      </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="54">
+        <v>480</v>
+      </c>
+      <c r="G32" s="48"/>
+      <c r="H32" s="50">
         <f>SUM(H14:H30)</f>
-        <v>0.625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="47">
         <f>C32/60</f>
         <v>8</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="51">
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="47">
         <f>F32/60</f>
-        <v>5.666666667</v>
-      </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="48"/>
+        <v>8</v>
+      </c>
+      <c r="G33" s="51"/>
+      <c r="H33" s="44"/>
     </row>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="57"/>
+      <c r="B35" s="53"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="57"/>
+      <c r="B36" s="53"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="57"/>
+      <c r="B37" s="53"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="57"/>
+      <c r="B38" s="53"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="57"/>
+      <c r="B39" s="53"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="57"/>
+      <c r="B40" s="53"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="57"/>
+      <c r="B41" s="53"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="57"/>
+      <c r="B42" s="53"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="58"/>
+      <c r="B43" s="54"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="57"/>
+      <c r="B44" s="53"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="57"/>
+      <c r="B45" s="53"/>
     </row>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
